--- a/database/insert文/ボトム.xlsx
+++ b/database/insert文/ボトム.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>INSERT INTO  VALUES (</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -38,6 +34,49 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>display_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>titile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>authority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO bottom_event VALUES (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/16:01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/16:01:00</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -122,11 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -407,38 +447,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="str">
+        <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,C3,$C$1,$D$1,D3,$D$1,$C$1,$D$1,E3,$D$1,$C$1,F3,$C$1,$D$1,G3,$D$1,$C$1,$D$1,H3,$D$1,$B$1)</f>
+        <v>INSERT INTO bottom_event VALUES (0,2,0,"0","0",0,"2018/11/12/16:01:00","2018/11/12/16:01");</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/insert文/ボトム.xlsx
+++ b/database/insert文/ボトム.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -72,16 +72,90 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>middle_eventID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛岡情報ビジネス専門学校情報システム館前集合</t>
+    <rPh sb="0" eb="2">
+      <t>モリオカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち物：筆記用具</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒッキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/16:02</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:03</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:04</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:05</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:00:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/16:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/16:00:01</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:00:02</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:00:03</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:00:04</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:00:05</t>
+  </si>
+  <si>
     <t>2018/11/12/16:01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018/11/12/16:01:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>middle_eventID</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -447,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I3" sqref="I3:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -477,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -503,32 +577,182 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I3" t="str">
         <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,C3,$C$1,$D$1,D3,$D$1,$C$1,$D$1,E3,$D$1,$C$1,F3,$C$1,$D$1,G3,$D$1,$C$1,$D$1,H3,$D$1,$B$1)</f>
-        <v>INSERT INTO bottom_event VALUES (0,2,0,"0","0",0,"2018/11/12/16:01:00","2018/11/12/16:01");</v>
+        <v>INSERT INTO bottom_event VALUES (1,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:00","2018/11/12/16:00");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I8" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,$D$1,D4,$D$1,$C$1,$D$1,E4,$D$1,$C$1,F4,$C$1,$D$1,G4,$D$1,$C$1,$D$1,H4,$D$1,$B$1)</f>
+        <v>INSERT INTO bottom_event VALUES (2,2,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:01","2018/11/12/16:01");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (3,3,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:02","2018/11/12/16:02");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (4,4,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:03","2018/11/12/16:03");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (5,5,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:04","2018/11/12/16:04");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (6,6,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:05","2018/11/12/16:05");</v>
       </c>
     </row>
   </sheetData>

--- a/database/insert文/ボトム.xlsx
+++ b/database/insert文/ボトム.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -156,6 +156,16 @@
   </si>
   <si>
     <t>2018/11/12/16:01</t>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/16:00:06</t>
+  </si>
+  <si>
+    <t>2018/11/12/16:06</t>
   </si>
 </sst>
 </file>
@@ -521,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -631,7 +641,7 @@
         <v>26</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I8" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,$D$1,D4,$D$1,$C$1,$D$1,E4,$D$1,$C$1,F4,$C$1,$D$1,G4,$D$1,$C$1,$D$1,H4,$D$1,$B$1)</f>
+        <f t="shared" ref="I4:I9" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,$D$1,D4,$D$1,$C$1,$D$1,E4,$D$1,$C$1,F4,$C$1,$D$1,G4,$D$1,$C$1,$D$1,H4,$D$1,$B$1)</f>
         <v>INSERT INTO bottom_event VALUES (2,2,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:01","2018/11/12/16:01");</v>
       </c>
     </row>
@@ -753,6 +763,36 @@
       <c r="I8" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO bottom_event VALUES (6,6,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:05","2018/11/12/16:05");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:06","2018/11/12/16:06");</v>
       </c>
     </row>
   </sheetData>

--- a/database/insert文/ボトム.xlsx
+++ b/database/insert文/ボトム.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -120,52 +120,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018/11/12/16:02</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:03</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:04</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:05</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:00:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018/11/12/16:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018/11/12/16:00:01</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:00:02</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:00:03</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:00:04</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:00:05</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:01</t>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018/11/12/16:00:06</t>
-  </si>
-  <si>
-    <t>2018/11/12/16:06</t>
+    <t>2018/11/12/17:01</t>
+  </si>
+  <si>
+    <t>2018/11/12/17:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/17:02</t>
+  </si>
+  <si>
+    <t>2018/11/12/17:03</t>
+  </si>
+  <si>
+    <t>2018/11/12/17:04</t>
+  </si>
+  <si>
+    <t>2018/11/12/17:05</t>
+  </si>
+  <si>
+    <t>2018/11/12/18:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/18:01</t>
+  </si>
+  <si>
+    <t>2018/11/12/18:02</t>
+  </si>
+  <si>
+    <t>2018/11/12/18:03</t>
+  </si>
+  <si>
+    <t>2018/11/12/18:04</t>
+  </si>
+  <si>
+    <t>2018/11/12/18:05</t>
+  </si>
+  <si>
+    <t>2018/11/12/18:06</t>
+  </si>
+  <si>
+    <t>2018/11/12/19:00</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -534,7 +535,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -586,8 +587,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -605,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="str">
         <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,C3,$C$1,$D$1,D3,$D$1,$C$1,$D$1,E3,$D$1,$C$1,F3,$C$1,$D$1,G3,$D$1,$C$1,$D$1,H3,$D$1,$B$1)</f>
-        <v>INSERT INTO bottom_event VALUES (1,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:00","2018/11/12/16:00");</v>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:00","2018/11/12/18:00");</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -635,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I9" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,$D$1,D4,$D$1,$C$1,$D$1,E4,$D$1,$C$1,F4,$C$1,$D$1,G4,$D$1,$C$1,$D$1,H4,$D$1,$B$1)</f>
-        <v>INSERT INTO bottom_event VALUES (2,2,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:01","2018/11/12/16:01");</v>
+        <v>INSERT INTO bottom_event VALUES (null,2,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:01","2018/11/12/18:01");</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -665,19 +666,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (3,3,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:02","2018/11/12/16:02");</v>
+        <v>INSERT INTO bottom_event VALUES (null,3,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:02","2018/11/12/18:02");</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -695,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (4,4,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:03","2018/11/12/16:03");</v>
+        <v>INSERT INTO bottom_event VALUES (null,4,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:03","2018/11/12/18:03");</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -725,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (5,5,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:04","2018/11/12/16:04");</v>
+        <v>INSERT INTO bottom_event VALUES (null,5,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:04","2018/11/12/18:04");</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -755,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (6,6,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:05","2018/11/12/16:05");</v>
+        <v>INSERT INTO bottom_event VALUES (null,6,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:05","2018/11/12/18:05");</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -784,7 +785,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" t="s">
         <v>28</v>
       </c>
       <c r="H9" t="s">
@@ -792,7 +793,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/16:00:06","2018/11/12/16:06");</v>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/18:06","2018/11/12/19:00");</v>
       </c>
     </row>
   </sheetData>

--- a/database/insert文/ボトム.xlsx
+++ b/database/insert文/ボトム.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -76,96 +76,312 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>盛岡情報ビジネス専門学校情報システム館前集合</t>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス１年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第１アリーナ</t>
     <rPh sb="0" eb="2">
-      <t>モリオカ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センモン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>持ち物：筆記用具</t>
-    <rPh sb="0" eb="1">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒッキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヨウグ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018/11/12/17:01</t>
-  </si>
-  <si>
-    <t>2018/11/12/17:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018/11/12/17:02</t>
-  </si>
-  <si>
-    <t>2018/11/12/17:03</t>
-  </si>
-  <si>
-    <t>2018/11/12/17:04</t>
-  </si>
-  <si>
-    <t>2018/11/12/17:05</t>
-  </si>
-  <si>
-    <t>2018/11/12/18:00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018/11/12/18:01</t>
-  </si>
-  <si>
-    <t>2018/11/12/18:02</t>
-  </si>
-  <si>
-    <t>2018/11/12/18:03</t>
-  </si>
-  <si>
-    <t>2018/11/12/18:04</t>
-  </si>
-  <si>
-    <t>2018/11/12/18:05</t>
-  </si>
-  <si>
-    <t>2018/11/12/18:06</t>
-  </si>
-  <si>
-    <t>2018/11/12/19:00</t>
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/10:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/10:45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/11:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/11:15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/11:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/11:45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/12:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/12:15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/12:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/12:45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/13:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/13:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/11/12/13:15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス２年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス３年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス４年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス５年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス６年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス７年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス８年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス９年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス１０年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム1年1組VSビジネス１１年</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第２アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第３アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第４アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第５アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第６アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第７アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第８アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第９アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第１０アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所：第１１アリーナ</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -588,7 +804,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -597,70 +813,70 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
       </c>
       <c r="I3" t="str">
         <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,C3,$C$1,$D$1,D3,$D$1,$C$1,$D$1,E3,$D$1,$C$1,F3,$C$1,$D$1,G3,$D$1,$C$1,$D$1,H3,$D$1,$B$1)</f>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:00","2018/11/12/18:00");</v>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス１年","場所：第１アリーナ",0,"2018/11/12/10:30","2018/11/12/10:45");</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I9" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,$D$1,D4,$D$1,$C$1,$D$1,E4,$D$1,$C$1,F4,$C$1,$D$1,G4,$D$1,$C$1,$D$1,H4,$D$1,$B$1)</f>
-        <v>INSERT INTO bottom_event VALUES (null,2,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:01","2018/11/12/18:01");</v>
+        <f t="shared" ref="I4:I13" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,$D$1,D4,$D$1,$C$1,$D$1,E4,$D$1,$C$1,F4,$C$1,$D$1,G4,$D$1,$C$1,$D$1,H4,$D$1,$B$1)</f>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス２年","場所：第２アリーナ",0,"2018/11/12/10:45","2018/11/12/11:00");</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -668,29 +884,29 @@
       <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,3,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:02","2018/11/12/18:02");</v>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス３年","場所：第３アリーナ",0,"2018/11/12/11:00","2018/11/12/11:15");</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -698,29 +914,29 @@
       <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>25</v>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,4,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:03","2018/11/12/18:03");</v>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス４年","場所：第４アリーナ",0,"2018/11/12/11:15","2018/11/12/11:30");</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -728,29 +944,29 @@
       <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,5,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:04","2018/11/12/18:04");</v>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス５年","場所：第５アリーナ",0,"2018/11/12/11:30","2018/11/12/11:45");</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -758,17 +974,17 @@
       <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,6,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/17:05","2018/11/12/18:05");</v>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス６年","場所：第６アリーナ",0,"2018/11/12/11:45","2018/11/12/12:00");</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -777,24 +993,150 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"盛岡情報ビジネス専門学校情報システム館前集合","持ち物：筆記用具",0,"2018/11/12/18:06","2018/11/12/19:00");</v>
-      </c>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス７年","場所：第７アリーナ",0,"2018/11/12/12:00","2018/11/12/12:15");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス８年","場所：第８アリーナ",0,"2018/11/12/12:15","2018/11/12/12:30");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス９年","場所：第９アリーナ",0,"2018/11/12/12:30","2018/11/12/12:45");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス１０年","場所：第１０アリーナ",0,"2018/11/12/12:45","2018/11/12/13:00");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス１１年","場所：第１１アリーナ",0,"2018/11/12/13:00","2018/11/12/13:15");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/database/insert文/ボトム.xlsx
+++ b/database/insert文/ボトム.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>);</t>
     <phoneticPr fontId="1"/>
@@ -382,6 +382,10 @@
     <rPh sb="3" eb="4">
       <t>ダイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top_eventID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -748,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -759,7 +763,7 @@
     <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -773,36 +777,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -810,29 +817,32 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="str">
-        <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,C3,$C$1,$D$1,D3,$D$1,$C$1,$D$1,E3,$D$1,$C$1,F3,$C$1,$D$1,G3,$D$1,$C$1,$D$1,H3,$D$1,$B$1)</f>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス１年","場所：第１アリーナ",0,"2018/11/12/10:30","2018/11/12/10:45");</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" t="str">
+        <f>CONCATENATE($A$1,A3,$C$1,B3,$C$1,C3,$C$1,D3,$C$1,$D$1,E3,$D$1,$C$1,$D$1,F3,$D$1,$C$1,G3,$C$1,$D$1,H3,$D$1,$C$1,$D$1,I3,$D$1,$B$1)</f>
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス１年","場所：第１アリーナ",0,"2018/11/12/10:30","2018/11/12/10:45");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -840,29 +850,32 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" ref="I4:I13" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,$D$1,D4,$D$1,$C$1,$D$1,E4,$D$1,$C$1,F4,$C$1,$D$1,G4,$D$1,$C$1,$D$1,H4,$D$1,$B$1)</f>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス２年","場所：第２アリーナ",0,"2018/11/12/10:45","2018/11/12/11:00");</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" t="str">
+        <f t="shared" ref="J4:J13" si="0">CONCATENATE($A$1,A4,$C$1,B4,$C$1,C4,$C$1,D4,$C$1,$D$1,E4,$D$1,$C$1,$D$1,F4,$D$1,$C$1,G4,$C$1,$D$1,H4,$D$1,$C$1,$D$1,I4,$D$1,$B$1)</f>
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス２年","場所：第２アリーナ",0,"2018/11/12/10:45","2018/11/12/11:00");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -870,29 +883,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>40</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス３年","場所：第３アリーナ",0,"2018/11/12/11:00","2018/11/12/11:15");</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス３年","場所：第３アリーナ",0,"2018/11/12/11:00","2018/11/12/11:15");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -900,29 +916,32 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス４年","場所：第４アリーナ",0,"2018/11/12/11:15","2018/11/12/11:30");</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス４年","場所：第４アリーナ",0,"2018/11/12/11:15","2018/11/12/11:30");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -930,29 +949,32 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス５年","場所：第５アリーナ",0,"2018/11/12/11:30","2018/11/12/11:45");</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス５年","場所：第５アリーナ",0,"2018/11/12/11:30","2018/11/12/11:45");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -960,29 +982,32 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス６年","場所：第６アリーナ",0,"2018/11/12/11:45","2018/11/12/12:00");</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス６年","場所：第６アリーナ",0,"2018/11/12/11:45","2018/11/12/12:00");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -990,29 +1015,32 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス７年","場所：第７アリーナ",0,"2018/11/12/12:00","2018/11/12/12:15");</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス７年","場所：第７アリーナ",0,"2018/11/12/12:00","2018/11/12/12:15");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1020,29 +1048,32 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>45</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス８年","場所：第８アリーナ",0,"2018/11/12/12:15","2018/11/12/12:30");</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス８年","場所：第８アリーナ",0,"2018/11/12/12:15","2018/11/12/12:30");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1050,29 +1081,32 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス９年","場所：第９アリーナ",0,"2018/11/12/12:30","2018/11/12/12:45");</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス９年","場所：第９アリーナ",0,"2018/11/12/12:30","2018/11/12/12:45");</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1080,29 +1114,32 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス１０年","場所：第１０アリーナ",0,"2018/11/12/12:45","2018/11/12/13:00");</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス１０年","場所：第１０アリーナ",0,"2018/11/12/12:45","2018/11/12/13:00");</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1110,32 +1147,35 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO bottom_event VALUES (null,1,0,"システム1年1組VSビジネス１１年","場所：第１１アリーナ",0,"2018/11/12/13:00","2018/11/12/13:15");</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>INSERT INTO bottom_event VALUES (null,1,1,0,"システム1年1組VSビジネス１１年","場所：第１１アリーナ",0,"2018/11/12/13:00","2018/11/12/13:15");</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="G15" s="4"/>
     </row>
   </sheetData>
